--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Edil3-Itgb3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Edil3-Itgb3.xlsx
@@ -543,16 +543,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.2252426666666666</v>
+        <v>0.2252426666666667</v>
       </c>
       <c r="H2">
-        <v>0.6757279999999999</v>
+        <v>0.675728</v>
       </c>
       <c r="I2">
-        <v>0.05022470853669458</v>
+        <v>0.1205396212319327</v>
       </c>
       <c r="J2">
-        <v>0.05022470853669458</v>
+        <v>0.1205396212319328</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N2">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P2">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q2">
-        <v>0.4712735046062221</v>
+        <v>1.657524595011556</v>
       </c>
       <c r="R2">
-        <v>4.241461541456</v>
+        <v>14.917721355104</v>
       </c>
       <c r="S2">
-        <v>0.006217655795125552</v>
+        <v>0.0475136037483866</v>
       </c>
       <c r="T2">
-        <v>0.006217655795125552</v>
+        <v>0.04751360374838662</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -605,16 +605,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>0.2252426666666666</v>
+        <v>0.2252426666666667</v>
       </c>
       <c r="H3">
-        <v>0.6757279999999999</v>
+        <v>0.675728</v>
       </c>
       <c r="I3">
-        <v>0.05022470853669458</v>
+        <v>0.1205396212319327</v>
       </c>
       <c r="J3">
-        <v>0.05022470853669458</v>
+        <v>0.1205396212319328</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -629,22 +629,22 @@
         <v>7.405096</v>
       </c>
       <c r="O3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P3">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q3">
-        <v>0.5559811899875554</v>
+        <v>0.5559811899875555</v>
       </c>
       <c r="R3">
-        <v>5.003830709888</v>
+        <v>5.003830709888001</v>
       </c>
       <c r="S3">
-        <v>0.007335230251900912</v>
+        <v>0.01593742260725911</v>
       </c>
       <c r="T3">
-        <v>0.007335230251900912</v>
+        <v>0.01593742260725911</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -667,16 +667,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>0.2252426666666666</v>
+        <v>0.2252426666666667</v>
       </c>
       <c r="H4">
-        <v>0.6757279999999999</v>
+        <v>0.675728</v>
       </c>
       <c r="I4">
-        <v>0.05022470853669458</v>
+        <v>0.1205396212319327</v>
       </c>
       <c r="J4">
-        <v>0.05022470853669458</v>
+        <v>0.1205396212319328</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -685,28 +685,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N4">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P4">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q4">
-        <v>0.07116204189333332</v>
+        <v>0.09531511336355555</v>
       </c>
       <c r="R4">
-        <v>0.6404583770399999</v>
+        <v>0.8578360202719999</v>
       </c>
       <c r="S4">
-        <v>0.0009388626303970866</v>
+        <v>0.002732245748399863</v>
       </c>
       <c r="T4">
-        <v>0.0009388626303970866</v>
+        <v>0.002732245748399864</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -729,16 +729,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>0.2252426666666666</v>
+        <v>0.2252426666666667</v>
       </c>
       <c r="H5">
-        <v>0.6757279999999999</v>
+        <v>0.675728</v>
       </c>
       <c r="I5">
-        <v>0.05022470853669458</v>
+        <v>0.1205396212319327</v>
       </c>
       <c r="J5">
-        <v>0.05022470853669458</v>
+        <v>0.1205396212319328</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N5">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O5">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P5">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q5">
-        <v>0.0590321987271111</v>
+        <v>0.030084762016</v>
       </c>
       <c r="R5">
-        <v>0.531289788544</v>
+        <v>0.270762858144</v>
       </c>
       <c r="S5">
-        <v>0.0007788298916174198</v>
+        <v>0.0008623917048318496</v>
       </c>
       <c r="T5">
-        <v>0.0007788298916174198</v>
+        <v>0.0008623917048318498</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,16 +791,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G6">
-        <v>0.2252426666666666</v>
+        <v>0.2252426666666667</v>
       </c>
       <c r="H6">
-        <v>0.6757279999999999</v>
+        <v>0.675728</v>
       </c>
       <c r="I6">
-        <v>0.05022470853669458</v>
+        <v>0.1205396212319327</v>
       </c>
       <c r="J6">
-        <v>0.05022470853669458</v>
+        <v>0.1205396212319328</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N6">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P6">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q6">
-        <v>2.543391990069333</v>
+        <v>1.822932523329778</v>
       </c>
       <c r="R6">
-        <v>22.89052791062399</v>
+        <v>16.406392709968</v>
       </c>
       <c r="S6">
-        <v>0.03355575009366166</v>
+        <v>0.05225508799942347</v>
       </c>
       <c r="T6">
-        <v>0.03355575009366166</v>
+        <v>0.05225508799942348</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,16 +853,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G7">
-        <v>0.2252426666666666</v>
+        <v>0.2252426666666667</v>
       </c>
       <c r="H7">
-        <v>0.6757279999999999</v>
+        <v>0.675728</v>
       </c>
       <c r="I7">
-        <v>0.05022470853669458</v>
+        <v>0.1205396212319327</v>
       </c>
       <c r="J7">
-        <v>0.05022470853669458</v>
+        <v>0.1205396212319328</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N7">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P7">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q7">
-        <v>0.1059916157635555</v>
+        <v>0.04321828650488889</v>
       </c>
       <c r="R7">
-        <v>0.9539245418719998</v>
+        <v>0.388964578544</v>
       </c>
       <c r="S7">
-        <v>0.001398379873991946</v>
+        <v>0.001238869423631822</v>
       </c>
       <c r="T7">
-        <v>0.001398379873991946</v>
+        <v>0.001238869423631822</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -909,22 +909,22 @@
         <v>27</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G8">
-        <v>0.3321623333333334</v>
+        <v>0.9888776666666667</v>
       </c>
       <c r="H8">
-        <v>0.9964870000000001</v>
+        <v>2.966633</v>
       </c>
       <c r="I8">
-        <v>0.07406570267268071</v>
+        <v>0.5292023094413023</v>
       </c>
       <c r="J8">
-        <v>0.0740657026726807</v>
+        <v>0.5292023094413023</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -933,28 +933,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N8">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P8">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q8">
-        <v>0.6949807034554446</v>
+        <v>7.276991869321555</v>
       </c>
       <c r="R8">
-        <v>6.254826331099001</v>
+        <v>65.492926823894</v>
       </c>
       <c r="S8">
-        <v>0.009169093437473774</v>
+        <v>0.208597874927319</v>
       </c>
       <c r="T8">
-        <v>0.009169093437473774</v>
+        <v>0.208597874927319</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -971,22 +971,22 @@
         <v>20</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G9">
-        <v>0.3321623333333334</v>
+        <v>0.9888776666666667</v>
       </c>
       <c r="H9">
-        <v>0.9964870000000001</v>
+        <v>2.966633</v>
       </c>
       <c r="I9">
-        <v>0.07406570267268071</v>
+        <v>0.5292023094413023</v>
       </c>
       <c r="J9">
-        <v>0.0740657026726807</v>
+        <v>0.5292023094413023</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -1001,22 +1001,22 @@
         <v>7.405096</v>
       </c>
       <c r="O9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P9">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q9">
-        <v>0.8198979886391112</v>
+        <v>2.440911351307555</v>
       </c>
       <c r="R9">
-        <v>7.379081897752001</v>
+        <v>21.968202161768</v>
       </c>
       <c r="S9">
-        <v>0.01081716546898454</v>
+        <v>0.06996969763224391</v>
       </c>
       <c r="T9">
-        <v>0.01081716546898454</v>
+        <v>0.06996969763224392</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,22 +1033,22 @@
         <v>21</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.3321623333333334</v>
+        <v>0.9888776666666667</v>
       </c>
       <c r="H10">
-        <v>0.9964870000000001</v>
+        <v>2.966633</v>
       </c>
       <c r="I10">
-        <v>0.07406570267268071</v>
+        <v>0.5292023094413023</v>
       </c>
       <c r="J10">
-        <v>0.0740657026726807</v>
+        <v>0.5292023094413023</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1057,28 +1057,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N10">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P10">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q10">
-        <v>0.1049417067816667</v>
+        <v>0.4184597363185555</v>
       </c>
       <c r="R10">
-        <v>0.9444753610350001</v>
+        <v>3.766137626867</v>
       </c>
       <c r="S10">
-        <v>0.001384528102988928</v>
+        <v>0.01199531527672781</v>
       </c>
       <c r="T10">
-        <v>0.001384528102988927</v>
+        <v>0.01199531527672781</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,22 +1095,22 @@
         <v>22</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.3321623333333334</v>
+        <v>0.9888776666666667</v>
       </c>
       <c r="H11">
-        <v>0.9964870000000001</v>
+        <v>2.966633</v>
       </c>
       <c r="I11">
-        <v>0.07406570267268071</v>
+        <v>0.5292023094413023</v>
       </c>
       <c r="J11">
-        <v>0.0740657026726807</v>
+        <v>0.5292023094413023</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,28 +1119,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N11">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O11">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P11">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q11">
-        <v>0.08705399008622225</v>
+        <v>0.132080434426</v>
       </c>
       <c r="R11">
-        <v>0.7834859107760002</v>
+        <v>1.188723909834</v>
       </c>
       <c r="S11">
-        <v>0.001148529973906909</v>
+        <v>0.003786138343357719</v>
       </c>
       <c r="T11">
-        <v>0.001148529973906909</v>
+        <v>0.003786138343357719</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,22 +1157,22 @@
         <v>23</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.3321623333333334</v>
+        <v>0.9888776666666667</v>
       </c>
       <c r="H12">
-        <v>0.9964870000000001</v>
+        <v>2.966633</v>
       </c>
       <c r="I12">
-        <v>0.07406570267268071</v>
+        <v>0.5292023094413023</v>
       </c>
       <c r="J12">
-        <v>0.0740657026726807</v>
+        <v>0.5292023094413023</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,28 +1181,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N12">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P12">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q12">
-        <v>3.750705985260667</v>
+        <v>8.003178468974777</v>
       </c>
       <c r="R12">
-        <v>33.756353867346</v>
+        <v>72.028606220773</v>
       </c>
       <c r="S12">
-        <v>0.0494842136829947</v>
+        <v>0.2294143035022874</v>
       </c>
       <c r="T12">
-        <v>0.04948421368299469</v>
+        <v>0.2294143035022874</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,22 +1219,22 @@
         <v>24</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.3321623333333334</v>
+        <v>0.9888776666666667</v>
       </c>
       <c r="H13">
-        <v>0.9964870000000001</v>
+        <v>2.966633</v>
       </c>
       <c r="I13">
-        <v>0.07406570267268071</v>
+        <v>0.5292023094413023</v>
       </c>
       <c r="J13">
-        <v>0.0740657026726807</v>
+        <v>0.5292023094413023</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1243,28 +1243,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N13">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P13">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q13">
-        <v>0.1563044112681111</v>
+        <v>0.1897402430398889</v>
       </c>
       <c r="R13">
-        <v>1.406739701413</v>
+        <v>1.707662187359</v>
       </c>
       <c r="S13">
-        <v>0.002062172006331857</v>
+        <v>0.005438979759366407</v>
       </c>
       <c r="T13">
-        <v>0.002062172006331857</v>
+        <v>0.005438979759366407</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1287,16 +1287,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>3.291001</v>
+        <v>0.248444</v>
       </c>
       <c r="H14">
-        <v>9.873003000000001</v>
+        <v>0.745332</v>
       </c>
       <c r="I14">
-        <v>0.7338288454184395</v>
+        <v>0.1329559186122802</v>
       </c>
       <c r="J14">
-        <v>0.7338288454184395</v>
+        <v>0.1329559186122802</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1305,28 +1305,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N14">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P14">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q14">
-        <v>6.885736161292334</v>
+        <v>1.828259479330667</v>
       </c>
       <c r="R14">
-        <v>61.97162545163101</v>
+        <v>16.454335313976</v>
       </c>
       <c r="S14">
-        <v>0.0908456277055886</v>
+        <v>0.05240778731825896</v>
       </c>
       <c r="T14">
-        <v>0.09084562770558861</v>
+        <v>0.05240778731825897</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>3.291001</v>
+        <v>0.248444</v>
       </c>
       <c r="H15">
-        <v>9.873003000000001</v>
+        <v>0.745332</v>
       </c>
       <c r="I15">
-        <v>0.7338288454184395</v>
+        <v>0.1329559186122802</v>
       </c>
       <c r="J15">
-        <v>0.7338288454184395</v>
+        <v>0.1329559186122802</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1373,22 +1373,22 @@
         <v>7.405096</v>
       </c>
       <c r="O15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P15">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q15">
-        <v>8.123392780365334</v>
+        <v>0.6132505568746667</v>
       </c>
       <c r="R15">
-        <v>73.11053502328801</v>
+        <v>5.519255011872001</v>
       </c>
       <c r="S15">
-        <v>0.1071744108320337</v>
+        <v>0.01757907185541172</v>
       </c>
       <c r="T15">
-        <v>0.1071744108320337</v>
+        <v>0.01757907185541172</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1411,16 +1411,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>3.291001</v>
+        <v>0.248444</v>
       </c>
       <c r="H16">
-        <v>9.873003000000001</v>
+        <v>0.745332</v>
       </c>
       <c r="I16">
-        <v>0.7338288454184395</v>
+        <v>0.1329559186122802</v>
       </c>
       <c r="J16">
-        <v>0.7338288454184395</v>
+        <v>0.1329559186122802</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1429,28 +1429,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N16">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P16">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q16">
-        <v>1.039742400935</v>
+        <v>0.1051331365186667</v>
       </c>
       <c r="R16">
-        <v>9.357681608415001</v>
+        <v>0.946198228668</v>
       </c>
       <c r="S16">
-        <v>0.01371764018436165</v>
+        <v>0.003013683298821962</v>
       </c>
       <c r="T16">
-        <v>0.01371764018436165</v>
+        <v>0.003013683298821962</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1473,16 +1473,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.291001</v>
+        <v>0.248444</v>
       </c>
       <c r="H17">
-        <v>9.873003000000001</v>
+        <v>0.745332</v>
       </c>
       <c r="I17">
-        <v>0.7338288454184395</v>
+        <v>0.1329559186122802</v>
       </c>
       <c r="J17">
-        <v>0.7338288454184395</v>
+        <v>0.1329559186122802</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1491,28 +1491,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N17">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O17">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P17">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q17">
-        <v>0.8625143180826668</v>
+        <v>0.033183671304</v>
       </c>
       <c r="R17">
-        <v>7.762628862744001</v>
+        <v>0.298653041736</v>
       </c>
       <c r="S17">
-        <v>0.01137941576555724</v>
+        <v>0.0009512231758129487</v>
       </c>
       <c r="T17">
-        <v>0.01137941576555724</v>
+        <v>0.0009512231758129488</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1535,16 +1535,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.291001</v>
+        <v>0.248444</v>
       </c>
       <c r="H18">
-        <v>9.873003000000001</v>
+        <v>0.745332</v>
       </c>
       <c r="I18">
-        <v>0.7338288454184395</v>
+        <v>0.1329559186122802</v>
       </c>
       <c r="J18">
-        <v>0.7338288454184395</v>
+        <v>0.1329559186122802</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1553,28 +1553,28 @@
         <v>1</v>
       </c>
       <c r="M18">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N18">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P18">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q18">
-        <v>37.161279017786</v>
+        <v>2.010705407321333</v>
       </c>
       <c r="R18">
-        <v>334.451511160074</v>
+        <v>18.096348665892</v>
       </c>
       <c r="S18">
-        <v>0.4902801442917445</v>
+        <v>0.05763767262683549</v>
       </c>
       <c r="T18">
-        <v>0.4902801442917445</v>
+        <v>0.0576376726268355</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1597,16 +1597,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.291001</v>
+        <v>0.248444</v>
       </c>
       <c r="H19">
-        <v>9.873003000000001</v>
+        <v>0.745332</v>
       </c>
       <c r="I19">
-        <v>0.7338288454184395</v>
+        <v>0.1329559186122802</v>
       </c>
       <c r="J19">
-        <v>0.7338288454184395</v>
+        <v>0.1329559186122802</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1615,28 +1615,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N19">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P19">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q19">
-        <v>1.548634273566333</v>
+        <v>0.04767002687066667</v>
       </c>
       <c r="R19">
-        <v>13.937708462097</v>
+        <v>0.429030241836</v>
       </c>
       <c r="S19">
-        <v>0.02043160663915379</v>
+        <v>0.001366480337139135</v>
       </c>
       <c r="T19">
-        <v>0.02043160663915379</v>
+        <v>0.001366480337139135</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1659,16 +1659,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G20">
-        <v>0.3696403333333333</v>
+        <v>0.259603</v>
       </c>
       <c r="H20">
-        <v>1.108921</v>
+        <v>0.778809</v>
       </c>
       <c r="I20">
-        <v>0.08242256353920498</v>
+        <v>0.1389277074089283</v>
       </c>
       <c r="J20">
-        <v>0.08242256353920498</v>
+        <v>0.1389277074089283</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1677,28 +1677,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N20">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P20">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q20">
-        <v>0.7733956355241112</v>
+        <v>1.910376767451333</v>
       </c>
       <c r="R20">
-        <v>6.960560719717001</v>
+        <v>17.193390907062</v>
       </c>
       <c r="S20">
-        <v>0.01020364567101914</v>
+        <v>0.05476171214109408</v>
       </c>
       <c r="T20">
-        <v>0.01020364567101914</v>
+        <v>0.0547617121410941</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1721,16 +1721,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G21">
-        <v>0.3696403333333333</v>
+        <v>0.259603</v>
       </c>
       <c r="H21">
-        <v>1.108921</v>
+        <v>0.778809</v>
       </c>
       <c r="I21">
-        <v>0.08242256353920498</v>
+        <v>0.1389277074089283</v>
       </c>
       <c r="J21">
-        <v>0.08242256353920498</v>
+        <v>0.1389277074089283</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1745,22 +1745,22 @@
         <v>7.405096</v>
       </c>
       <c r="O21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P21">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q21">
-        <v>0.9124073846017778</v>
+        <v>0.6407950456293332</v>
       </c>
       <c r="R21">
-        <v>8.211666461416002</v>
+        <v>5.767155410664</v>
       </c>
       <c r="S21">
-        <v>0.01203767028474211</v>
+        <v>0.01836864561382221</v>
       </c>
       <c r="T21">
-        <v>0.01203767028474211</v>
+        <v>0.01836864561382223</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1783,16 +1783,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G22">
-        <v>0.3696403333333333</v>
+        <v>0.259603</v>
       </c>
       <c r="H22">
-        <v>1.108921</v>
+        <v>0.778809</v>
       </c>
       <c r="I22">
-        <v>0.08242256353920498</v>
+        <v>0.1389277074089283</v>
       </c>
       <c r="J22">
-        <v>0.08242256353920498</v>
+        <v>0.1389277074089283</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1801,28 +1801,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N22">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P22">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q22">
-        <v>0.1167823187116667</v>
+        <v>0.1098552496323333</v>
       </c>
       <c r="R22">
-        <v>1.051040868405</v>
+        <v>0.9886972466909999</v>
       </c>
       <c r="S22">
-        <v>0.001540744925417576</v>
+        <v>0.003149044555006672</v>
       </c>
       <c r="T22">
-        <v>0.001540744925417576</v>
+        <v>0.003149044555006674</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1845,16 +1845,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G23">
-        <v>0.3696403333333333</v>
+        <v>0.259603</v>
       </c>
       <c r="H23">
-        <v>1.108921</v>
+        <v>0.778809</v>
       </c>
       <c r="I23">
-        <v>0.08242256353920498</v>
+        <v>0.1389277074089283</v>
       </c>
       <c r="J23">
-        <v>0.08242256353920498</v>
+        <v>0.1389277074089283</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1863,28 +1863,28 @@
         <v>1</v>
       </c>
       <c r="M23">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N23">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O23">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P23">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q23">
-        <v>0.09687632426755556</v>
+        <v>0.034674134298</v>
       </c>
       <c r="R23">
-        <v>0.8718869184080001</v>
+        <v>0.312067208682</v>
       </c>
       <c r="S23">
-        <v>0.001278119039380166</v>
+        <v>0.0009939478921228481</v>
       </c>
       <c r="T23">
-        <v>0.001278119039380166</v>
+        <v>0.0009939478921228485</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1907,16 +1907,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G24">
-        <v>0.3696403333333333</v>
+        <v>0.259603</v>
       </c>
       <c r="H24">
-        <v>1.108921</v>
+        <v>0.778809</v>
       </c>
       <c r="I24">
-        <v>0.08242256353920498</v>
+        <v>0.1389277074089283</v>
       </c>
       <c r="J24">
-        <v>0.08242256353920498</v>
+        <v>0.1389277074089283</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1925,28 +1925,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N24">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P24">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q24">
-        <v>4.173899540968667</v>
+        <v>2.101017355447666</v>
       </c>
       <c r="R24">
-        <v>37.565095868718</v>
+        <v>18.909156199029</v>
       </c>
       <c r="S24">
-        <v>0.05506753597544188</v>
+        <v>0.06022650064780946</v>
       </c>
       <c r="T24">
-        <v>0.05506753597544188</v>
+        <v>0.06022650064780948</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1969,16 +1969,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G25">
-        <v>0.3696403333333333</v>
+        <v>0.259603</v>
       </c>
       <c r="H25">
-        <v>1.108921</v>
+        <v>0.778809</v>
       </c>
       <c r="I25">
-        <v>0.08242256353920498</v>
+        <v>0.1389277074089283</v>
       </c>
       <c r="J25">
-        <v>0.08242256353920498</v>
+        <v>0.1389277074089283</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1987,28 +1987,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N25">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P25">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q25">
-        <v>0.1739402963087778</v>
+        <v>0.04981115255633333</v>
       </c>
       <c r="R25">
-        <v>1.565462666779</v>
+        <v>0.448300373007</v>
       </c>
       <c r="S25">
-        <v>0.002294847643204105</v>
+        <v>0.001427856559072993</v>
       </c>
       <c r="T25">
-        <v>0.002294847643204105</v>
+        <v>0.001427856559072994</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2025,22 +2025,22 @@
         <v>27</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G26">
-        <v>0.266652</v>
+        <v>0.146452</v>
       </c>
       <c r="H26">
-        <v>0.799956</v>
+        <v>0.439356</v>
       </c>
       <c r="I26">
-        <v>0.05945817983298022</v>
+        <v>0.07837444330555643</v>
       </c>
       <c r="J26">
-        <v>0.05945817983298022</v>
+        <v>0.07837444330555644</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2049,28 +2049,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>2.092292333333333</v>
+        <v>7.358839333333333</v>
       </c>
       <c r="N26">
-        <v>6.276877000000001</v>
+        <v>22.076518</v>
       </c>
       <c r="O26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621265</v>
       </c>
       <c r="P26">
-        <v>0.1237967521619938</v>
+        <v>0.3941741583621266</v>
       </c>
       <c r="Q26">
-        <v>0.557913935268</v>
+        <v>1.077716738045333</v>
       </c>
       <c r="R26">
-        <v>5.021225417412</v>
+        <v>9.699450642408001</v>
       </c>
       <c r="S26">
-        <v>0.007360729552786709</v>
+        <v>0.03089318022706791</v>
       </c>
       <c r="T26">
-        <v>0.00736072955278671</v>
+        <v>0.03089318022706792</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -2087,22 +2087,22 @@
         <v>20</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F27">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G27">
-        <v>0.266652</v>
+        <v>0.146452</v>
       </c>
       <c r="H27">
-        <v>0.799956</v>
+        <v>0.439356</v>
       </c>
       <c r="I27">
-        <v>0.05945817983298022</v>
+        <v>0.07837444330555643</v>
       </c>
       <c r="J27">
-        <v>0.05945817983298022</v>
+        <v>0.07837444330555644</v>
       </c>
       <c r="K27">
         <v>3</v>
@@ -2117,22 +2117,22 @@
         <v>7.405096</v>
       </c>
       <c r="O27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656896</v>
       </c>
       <c r="P27">
-        <v>0.1460482393151517</v>
+        <v>0.1322172945656897</v>
       </c>
       <c r="Q27">
-        <v>0.658194552864</v>
+        <v>0.3614970397973333</v>
       </c>
       <c r="R27">
-        <v>5.923750975776001</v>
+        <v>3.253473358176</v>
       </c>
       <c r="S27">
-        <v>0.008683762477490422</v>
+        <v>0.0103624568569527</v>
       </c>
       <c r="T27">
-        <v>0.008683762477490422</v>
+        <v>0.0103624568569527</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -2149,22 +2149,22 @@
         <v>21</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F28">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G28">
-        <v>0.266652</v>
+        <v>0.146452</v>
       </c>
       <c r="H28">
-        <v>0.799956</v>
+        <v>0.439356</v>
       </c>
       <c r="I28">
-        <v>0.05945817983298022</v>
+        <v>0.07837444330555643</v>
       </c>
       <c r="J28">
-        <v>0.05945817983298022</v>
+        <v>0.07837444330555644</v>
       </c>
       <c r="K28">
         <v>3</v>
@@ -2173,28 +2173,28 @@
         <v>1</v>
       </c>
       <c r="M28">
-        <v>0.315935</v>
+        <v>0.4231663333333333</v>
       </c>
       <c r="N28">
-        <v>0.947805</v>
+        <v>1.269499</v>
       </c>
       <c r="O28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="P28">
-        <v>0.01869324198688273</v>
+        <v>0.02266678558034203</v>
       </c>
       <c r="Q28">
-        <v>0.08424469962</v>
+        <v>0.06197355584933333</v>
       </c>
       <c r="R28">
-        <v>0.75820229658</v>
+        <v>0.557762002644</v>
       </c>
       <c r="S28">
-        <v>0.00111146614371749</v>
+        <v>0.00177649670138572</v>
       </c>
       <c r="T28">
-        <v>0.00111146614371749</v>
+        <v>0.001776496701385721</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -2211,22 +2211,22 @@
         <v>22</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G29">
-        <v>0.266652</v>
+        <v>0.146452</v>
       </c>
       <c r="H29">
-        <v>0.799956</v>
+        <v>0.439356</v>
       </c>
       <c r="I29">
-        <v>0.05945817983298022</v>
+        <v>0.07837444330555643</v>
       </c>
       <c r="J29">
-        <v>0.05945817983298022</v>
+        <v>0.07837444330555644</v>
       </c>
       <c r="K29">
         <v>3</v>
@@ -2235,28 +2235,28 @@
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.2620826666666667</v>
+        <v>0.133566</v>
       </c>
       <c r="N29">
-        <v>0.7862480000000001</v>
+        <v>0.400698</v>
       </c>
       <c r="O29">
-        <v>0.01550690714408826</v>
+        <v>0.0071544252090564</v>
       </c>
       <c r="P29">
-        <v>0.01550690714408826</v>
+        <v>0.007154425209056401</v>
       </c>
       <c r="Q29">
-        <v>0.06988486723200001</v>
+        <v>0.019561007832</v>
       </c>
       <c r="R29">
-        <v>0.6289638050880001</v>
+        <v>0.176049070488</v>
       </c>
       <c r="S29">
-        <v>0.0009220124736265255</v>
+        <v>0.0005607240929310345</v>
       </c>
       <c r="T29">
-        <v>0.0009220124736265255</v>
+        <v>0.0005607240929310347</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -2273,22 +2273,22 @@
         <v>23</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G30">
-        <v>0.266652</v>
+        <v>0.146452</v>
       </c>
       <c r="H30">
-        <v>0.799956</v>
+        <v>0.439356</v>
       </c>
       <c r="I30">
-        <v>0.05945817983298022</v>
+        <v>0.07837444330555643</v>
       </c>
       <c r="J30">
-        <v>0.05945817983298022</v>
+        <v>0.07837444330555644</v>
       </c>
       <c r="K30">
         <v>3</v>
@@ -2297,28 +2297,28 @@
         <v>1</v>
       </c>
       <c r="M30">
-        <v>11.291786</v>
+        <v>8.093193666666666</v>
       </c>
       <c r="N30">
-        <v>33.875358</v>
+        <v>24.279581</v>
       </c>
       <c r="O30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="P30">
-        <v>0.6681123907199095</v>
+        <v>0.4335096416047168</v>
       </c>
       <c r="Q30">
-        <v>3.010977320472</v>
+        <v>1.185264398870667</v>
       </c>
       <c r="R30">
-        <v>27.098795884248</v>
+        <v>10.667379589836</v>
       </c>
       <c r="S30">
-        <v>0.03972474667606672</v>
+        <v>0.03397607682836096</v>
       </c>
       <c r="T30">
-        <v>0.03972474667606672</v>
+        <v>0.03397607682836097</v>
       </c>
     </row>
     <row r="31" spans="1:20">
@@ -2335,22 +2335,22 @@
         <v>24</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F31">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G31">
-        <v>0.266652</v>
+        <v>0.146452</v>
       </c>
       <c r="H31">
-        <v>0.799956</v>
+        <v>0.439356</v>
       </c>
       <c r="I31">
-        <v>0.05945817983298022</v>
+        <v>0.07837444330555643</v>
       </c>
       <c r="J31">
-        <v>0.05945817983298022</v>
+        <v>0.07837444330555644</v>
       </c>
       <c r="K31">
         <v>3</v>
@@ -2359,28 +2359,28 @@
         <v>1</v>
       </c>
       <c r="M31">
-        <v>0.4705663333333334</v>
+        <v>0.1918743333333333</v>
       </c>
       <c r="N31">
-        <v>1.411699</v>
+        <v>0.575623</v>
       </c>
       <c r="O31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="P31">
-        <v>0.02784246867197405</v>
+        <v>0.01027769467806845</v>
       </c>
       <c r="Q31">
-        <v>0.125477453916</v>
+        <v>0.02810037986533333</v>
       </c>
       <c r="R31">
-        <v>1.129297085244</v>
+        <v>0.252903418788</v>
       </c>
       <c r="S31">
-        <v>0.001655462509292351</v>
+        <v>0.000805508598858095</v>
       </c>
       <c r="T31">
-        <v>0.001655462509292351</v>
+        <v>0.0008055085988580951</v>
       </c>
     </row>
   </sheetData>
